--- a/xlsx/氢经济_intext.xlsx
+++ b/xlsx/氢经济_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
   <si>
     <t>氢经济</t>
   </si>
@@ -29,7 +29,7 @@
     <t>en-Hydrogen economy</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_氢经济</t>
+    <t>政策_政策_混合动力车辆_氢经济</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/John_Bockris</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB%E6%B0%A3</t>
   </si>
   <si>
-    <t>氫氣</t>
+    <t>氢气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E5%8F%8D%E6%87%89</t>
   </si>
   <si>
-    <t>化學反應</t>
+    <t>化学反应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E9%87%8F</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>燃料電池</t>
+    <t>燃料电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E6%B0%A3</t>
   </si>
   <si>
-    <t>廢氣</t>
+    <t>废气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E4%BF%9D</t>
   </si>
   <si>
-    <t>環保</t>
+    <t>环保</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E6%B2%B9</t>
@@ -101,19 +101,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>天然氣</t>
+    <t>天然气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%AE%A4%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>溫室氣體</t>
+    <t>温室气体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>新興國家</t>
+    <t>新兴国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E9%87%8F%E5%AF%86%E5%BA%A6</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AA%E9%87%8F</t>
   </si>
   <si>
-    <t>質量</t>
+    <t>质量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%87%83%E6%A9%9F</t>
   </si>
   <si>
-    <t>內燃機</t>
+    <t>内燃机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hydrogen_technologies</t>
@@ -167,9 +167,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99%E7%94%B5%E6%B1%A0</t>
   </si>
   <si>
-    <t>燃料电池</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Hydrogen_production</t>
   </si>
   <si>
@@ -227,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB%E6%B0%A3%E8%BB%8A</t>
   </si>
   <si>
-    <t>氫氣車</t>
+    <t>氢气车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E7%9F%B3%E7%87%83%E6%96%99</t>
@@ -239,13 +236,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E6%A9%9F</t>
   </si>
   <si>
-    <t>渦輪機</t>
+    <t>涡轮机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E8%83%BD</t>
   </si>
   <si>
-    <t>動能</t>
+    <t>动能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E6%96%AF</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A4%8E%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>基礎建設</t>
+    <t>基础建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%8A%A8%E8%BD%A6</t>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%AB%E5%A4%96%E7%B7%9A</t>
   </si>
   <si>
-    <t>紫外線</t>
+    <t>紫外线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mercedes-Benz_O530_Citaro</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%88%BE%E8%AB%BE</t>
   </si>
   <si>
-    <t>布爾諾</t>
+    <t>布尔诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A2</t>
@@ -467,13 +464,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%BE%B7%E5%8B%95%E5%8A%9B%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>巴拉德動力公司</t>
+    <t>巴拉德动力公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AA%E5%AD%90%E4%BA%A4%E6%8F%9B%E8%86%9C%E7%87%83%E6%96%99%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>質子交換膜燃料電池</t>
+    <t>质子交换膜燃料电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E4%BA%AD</t>
@@ -497,15 +494,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD</t>
   </si>
   <si>
-    <t>太陽能</t>
+    <t>太阳能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%83%BD</t>
   </si>
   <si>
@@ -551,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>可持續能源</t>
+    <t>可持续能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B%E7%9A%84%E5%8F%AF%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
@@ -575,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>氫汽車</t>
+    <t>氢汽车</t>
   </si>
 </sst>
 </file>
@@ -1642,7 +1636,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G25" t="n">
         <v>18</v>
@@ -1668,10 +1662,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1697,10 +1691,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1726,10 +1720,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1755,10 +1749,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1784,10 +1778,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1813,10 +1807,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1842,10 +1836,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -1871,10 +1865,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1900,10 +1894,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1929,10 +1923,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -1958,10 +1952,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -1987,10 +1981,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2016,10 +2010,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2045,10 +2039,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2074,10 +2068,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>4</v>
@@ -2103,10 +2097,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2132,10 +2126,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>4</v>
@@ -2161,10 +2155,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2190,10 +2184,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2219,10 +2213,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2248,10 +2242,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2277,10 +2271,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2306,10 +2300,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2335,10 +2329,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2364,10 +2358,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>87</v>
@@ -2393,10 +2387,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2422,10 +2416,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>10</v>
@@ -2451,10 +2445,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2480,10 +2474,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2509,10 +2503,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>4</v>
@@ -2538,10 +2532,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>6</v>
@@ -2567,10 +2561,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2596,10 +2590,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -2625,10 +2619,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -2654,10 +2648,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2683,10 +2677,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -2712,10 +2706,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -2741,10 +2735,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2770,10 +2764,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2799,10 +2793,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2828,10 +2822,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2857,10 +2851,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2886,10 +2880,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2915,10 +2909,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2944,10 +2938,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>5</v>
@@ -2973,10 +2967,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3002,10 +2996,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>9</v>
@@ -3031,10 +3025,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -3060,10 +3054,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>8</v>
@@ -3089,10 +3083,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3118,10 +3112,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3147,10 +3141,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -3176,10 +3170,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3205,10 +3199,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3234,10 +3228,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -3263,10 +3257,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3292,10 +3286,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3321,10 +3315,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -3350,10 +3344,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3379,10 +3373,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>4</v>
@@ -3408,10 +3402,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3437,10 +3431,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3466,10 +3460,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3495,10 +3489,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3524,10 +3518,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3553,10 +3547,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3582,10 +3576,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3611,10 +3605,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
